--- a/biology/Botanique/Polycarpon/Polycarpon.xlsx
+++ b/biology/Botanique/Polycarpon/Polycarpon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polycarpon est un genre de plantes de la famille des Caryophyllacées. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Polycarpon signifiant « à nombreux fruits » a été formé par Pehr Loefling, à partir de deux étymons grecs, πολύ poly « plusieurs » et καρπος karpos « fruit », en référence à une fructification abondante.
 </t>
@@ -542,7 +556,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été décrit par Pehr Loefling ex L. et publié dans Systema Naturae, Editio Decima 2: 881, 859, 1360. 1759.
 L’espèce type est : Polycarpon tetraphyllum (L.) L.
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées à feuilles caduques, dressées ou rampantes. Le fruit est une capsule.
 </t>
@@ -605,9 +623,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GRIN[1], les espèces sont
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GRIN, les espèces sont
 Polycarpon indicum (Retz.) Merr. (=Polycarpon prostratum (Forssk.) Asch. &amp; Schweinf.)
 Polycarpon prostratum (Forssk.) Asch. &amp; Schweinf.
 Polycarpon tetraphyllum (L.) L.
